--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -16,12 +16,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Vocabulary</t>
   </si>
   <si>
     <t>دایره لغات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">released </t>
+  </si>
+  <si>
+    <t>منتشر شد</t>
+  </si>
+  <si>
+    <t>involvse</t>
+  </si>
+  <si>
+    <t>شامل میشود</t>
+  </si>
+  <si>
+    <t>tamplate</t>
+  </si>
+  <si>
+    <t>نمونه - الگو</t>
+  </si>
+  <si>
+    <t>sophisticated</t>
+  </si>
+  <si>
+    <t>پیچیده - مصنوعی</t>
+  </si>
+  <si>
+    <t>intracts</t>
+  </si>
+  <si>
+    <t>تعامل دارد</t>
+  </si>
+  <si>
+    <t>comperhencive</t>
+  </si>
+  <si>
+    <t>جامع</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>لذت بخش</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>تجربه</t>
+  </si>
+  <si>
+    <t>desirable</t>
+  </si>
+  <si>
+    <t>مطلوب - مرغوب - مناسب</t>
+  </si>
+  <si>
+    <t>تولیدکنندگان</t>
+  </si>
+  <si>
+    <t>manufacturers</t>
+  </si>
+  <si>
+    <t>innovate</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>نوآوری - خلاقیت</t>
+  </si>
+  <si>
+    <t>بالا بردن -  ارتقا</t>
+  </si>
+  <si>
+    <t>aside</t>
+  </si>
+  <si>
+    <t>گذشته از اینکه - علاوه بر اینکه</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>آوردن - رساندن</t>
+  </si>
+  <si>
+    <t>آورده شده - رسانده شده</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کل - تمام - بی عیب </t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>اجازه</t>
+  </si>
+  <si>
+    <t>how to  guts of</t>
+  </si>
+  <si>
+    <t>چطور</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>اجتماع</t>
+  </si>
+  <si>
+    <t>modifying</t>
+  </si>
+  <si>
+    <t>تغییر دادن - اصلاح کردن</t>
+  </si>
+  <si>
+    <t>attached</t>
+  </si>
+  <si>
+    <t>وصل شده - متصل شده</t>
+  </si>
+  <si>
+    <t>foreseen</t>
+  </si>
+  <si>
+    <t>پیش بینی شده</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>undertaken</t>
+  </si>
+  <si>
+    <t>assumptions</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>consideration</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>به طور کلی</t>
+  </si>
+  <si>
+    <t>توجه</t>
+  </si>
+  <si>
+    <t>قابل حمل</t>
+  </si>
+  <si>
+    <t>فرض</t>
+  </si>
+  <si>
+    <t>مفروضات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برعهده گرفتن </t>
+  </si>
+  <si>
+    <t>گرفتن</t>
+  </si>
+  <si>
+    <t>محدودیت ها</t>
+  </si>
+  <si>
+    <t>offers</t>
+  </si>
+  <si>
+    <t>ارایه میدهد</t>
+  </si>
+  <si>
+    <t>alliance</t>
+  </si>
+  <si>
+    <t>اتحاد</t>
+  </si>
+  <si>
+    <t>sell - vent</t>
+  </si>
+  <si>
+    <t>فروختن</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>فروخته شد</t>
+  </si>
+  <si>
+    <t>afterward</t>
+  </si>
+  <si>
+    <t>motivation</t>
+  </si>
+  <si>
+    <t>پس از آن</t>
+  </si>
+  <si>
+    <t>انگیزه</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>در نهایت</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>هزینه ها</t>
   </si>
 </sst>
 </file>
@@ -38,18 +266,18 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,12 +300,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -381,25 +615,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="59.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
